--- a/data/FrontiersDS.xlsx
+++ b/data/FrontiersDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanefitzgerald/Documents/PhD Literature/Experimental data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ca4015-second-assignment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522D6FB3-60B9-DA48-A81E-B22E523F5D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8313BD4A-46C4-4D09-9B84-9E39CF7B63F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{CBC3BAA8-7000-9A4E-9F5A-7937E778D871}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBC3BAA8-7000-9A4E-9F5A-7937E778D871}"/>
   </bookViews>
   <sheets>
     <sheet name="Long" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="260">
   <si>
     <t>Compounds</t>
   </si>
@@ -804,9 +804,6 @@
   </si>
   <si>
     <t xml:space="preserve">Base peak </t>
-  </si>
-  <si>
-    <t>The data on this sheet was used to formulate Figure 2, Figure 3, Figure S1 - S10</t>
   </si>
   <si>
     <t>P val</t>
@@ -1628,11 +1625,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E04600A-5426-7040-80F2-D9992C81F75B}">
   <dimension ref="A1:CJ75"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:CJ70"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1643,18 +1640,15 @@
     <col min="16" max="16" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>255</v>
-      </c>
+    <row r="1" spans="1:88" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C1" s="52"/>
       <c r="D1" s="53"/>
     </row>
-    <row r="2" spans="1:88" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A4" s="58" t="s">
         <v>86</v>
       </c>
@@ -2180,7 +2174,7 @@
         <v>339404</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A5" s="58" t="s">
         <v>89</v>
       </c>
@@ -2188,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="66">
         <v>45</v>
@@ -2446,7 +2440,7 @@
         <v>3962927</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A6" s="58" t="s">
         <v>91</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A7" s="58" t="s">
         <v>94</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>2988409</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A8" s="58" t="s">
         <v>97</v>
       </c>
@@ -3128,7 +3122,7 @@
         <v>348154</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A9" s="58" t="s">
         <v>99</v>
       </c>
@@ -3340,7 +3334,7 @@
       <c r="CI9" s="58"/>
       <c r="CJ9" s="58"/>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A10" s="58" t="s">
         <v>101</v>
       </c>
@@ -3606,7 +3600,7 @@
         <v>694251</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
         <v>103</v>
       </c>
@@ -3758,7 +3752,7 @@
       <c r="CI11" s="58"/>
       <c r="CJ11" s="58"/>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A12" s="62" t="s">
         <v>104</v>
       </c>
@@ -3964,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>107</v>
       </c>
@@ -4176,7 +4170,7 @@
       <c r="CI13" s="58"/>
       <c r="CJ13" s="58"/>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
         <v>109</v>
       </c>
@@ -4326,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A15" s="58" t="s">
         <v>111</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" s="58" t="s">
         <v>113</v>
       </c>
@@ -4748,7 +4742,7 @@
       <c r="CI16" s="58"/>
       <c r="CJ16" s="58"/>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" s="58" t="s">
         <v>115</v>
       </c>
@@ -4960,7 +4954,7 @@
         <v>150367</v>
       </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A18" s="58" t="s">
         <v>117</v>
       </c>
@@ -5112,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" s="58" t="s">
         <v>120</v>
       </c>
@@ -5378,7 +5372,7 @@
         <v>479434</v>
       </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A20" s="58" t="s">
         <v>122</v>
       </c>
@@ -5642,7 +5636,7 @@
         <v>56195</v>
       </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" s="58" t="s">
         <v>124</v>
       </c>
@@ -5854,7 +5848,7 @@
       <c r="CI21" s="58"/>
       <c r="CJ21" s="58"/>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>126</v>
       </c>
@@ -6012,7 +6006,7 @@
       <c r="CI22" s="58"/>
       <c r="CJ22" s="58"/>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A23" s="58" t="s">
         <v>128</v>
       </c>
@@ -6164,7 +6158,7 @@
       <c r="CI23" s="58"/>
       <c r="CJ23" s="58"/>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A24" s="58" t="s">
         <v>130</v>
       </c>
@@ -6370,7 +6364,7 @@
         <v>336294</v>
       </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A25" s="58" t="s">
         <v>131</v>
       </c>
@@ -6636,7 +6630,7 @@
         <v>363923</v>
       </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A26" s="58" t="s">
         <v>133</v>
       </c>
@@ -6840,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A27" s="58" t="s">
         <v>134</v>
       </c>
@@ -7106,7 +7100,7 @@
         <v>4078717</v>
       </c>
     </row>
-    <row r="28" spans="1:88" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A28" s="58" t="s">
         <v>136</v>
       </c>
@@ -7258,7 +7252,7 @@
       <c r="CI28" s="58"/>
       <c r="CJ28" s="58"/>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A29" s="58" t="s">
         <v>137</v>
       </c>
@@ -7464,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A30" s="58" t="s">
         <v>138</v>
       </c>
@@ -7730,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A31" s="58" t="s">
         <v>140</v>
       </c>
@@ -7882,7 +7876,7 @@
       <c r="CI31" s="58"/>
       <c r="CJ31" s="58"/>
     </row>
-    <row r="32" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A32" s="58" t="s">
         <v>142</v>
       </c>
@@ -8148,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A33" s="58" t="s">
         <v>144</v>
       </c>
@@ -8300,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A34" s="58" t="s">
         <v>146</v>
       </c>
@@ -8452,7 +8446,7 @@
       <c r="CI34" s="58"/>
       <c r="CJ34" s="58"/>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A35" s="58" t="s">
         <v>148</v>
       </c>
@@ -8604,7 +8598,7 @@
       <c r="CI35" s="58"/>
       <c r="CJ35" s="58"/>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A36" s="58" t="s">
         <v>149</v>
       </c>
@@ -8808,7 +8802,7 @@
         <v>980973</v>
       </c>
     </row>
-    <row r="37" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A37" s="58" t="s">
         <v>150</v>
       </c>
@@ -9020,7 +9014,7 @@
         <v>14027578</v>
       </c>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A38" s="58" t="s">
         <v>153</v>
       </c>
@@ -9172,7 +9166,7 @@
       <c r="CI38" s="58"/>
       <c r="CJ38" s="58"/>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A39" s="58" t="s">
         <v>155</v>
       </c>
@@ -9324,7 +9318,7 @@
       <c r="CI39" s="58"/>
       <c r="CJ39" s="58"/>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A40" s="58" t="s">
         <v>157</v>
       </c>
@@ -9476,7 +9470,7 @@
       <c r="CI40" s="58"/>
       <c r="CJ40" s="58"/>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A41" s="58" t="s">
         <v>159</v>
       </c>
@@ -9680,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A42" s="58" t="s">
         <v>160</v>
       </c>
@@ -9890,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:88" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:88" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A43" s="73" t="s">
         <v>162</v>
       </c>
@@ -10048,7 +10042,7 @@
       <c r="CI43" s="58"/>
       <c r="CJ43" s="58"/>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A44" s="59" t="s">
         <v>164</v>
       </c>
@@ -10200,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A45" s="73" t="s">
         <v>166</v>
       </c>
@@ -10406,7 +10400,7 @@
         <v>764794</v>
       </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A46" s="73" t="s">
         <v>168</v>
       </c>
@@ -10612,7 +10606,7 @@
         <v>530396</v>
       </c>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A47" s="73" t="s">
         <v>170</v>
       </c>
@@ -10770,7 +10764,7 @@
       <c r="CI47" s="58"/>
       <c r="CJ47" s="58"/>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A48" s="73" t="s">
         <v>173</v>
       </c>
@@ -10922,7 +10916,7 @@
         <v>152418</v>
       </c>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A49" s="73" t="s">
         <v>175</v>
       </c>
@@ -11074,7 +11068,7 @@
         <v>129213</v>
       </c>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A50" s="73" t="s">
         <v>177</v>
       </c>
@@ -11280,7 +11274,7 @@
         <v>376472</v>
       </c>
     </row>
-    <row r="51" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A51" s="73" t="s">
         <v>179</v>
       </c>
@@ -11438,7 +11432,7 @@
       <c r="CI51" s="58"/>
       <c r="CJ51" s="58"/>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A52" s="80" t="s">
         <v>181</v>
       </c>
@@ -11590,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A53" s="73" t="s">
         <v>183</v>
       </c>
@@ -11742,7 +11736,7 @@
         <v>4098619</v>
       </c>
     </row>
-    <row r="54" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A54" s="73" t="s">
         <v>185</v>
       </c>
@@ -11894,7 +11888,7 @@
         <v>975303</v>
       </c>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A55" s="73" t="s">
         <v>187</v>
       </c>
@@ -12046,7 +12040,7 @@
         <v>96187</v>
       </c>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A56" s="73" t="s">
         <v>189</v>
       </c>
@@ -12202,7 +12196,7 @@
       <c r="CI56" s="58"/>
       <c r="CJ56" s="58"/>
     </row>
-    <row r="57" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A57" s="73" t="s">
         <v>190</v>
       </c>
@@ -12354,7 +12348,7 @@
         <v>173580</v>
       </c>
     </row>
-    <row r="58" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A58" s="73" t="s">
         <v>192</v>
       </c>
@@ -12506,7 +12500,7 @@
       <c r="CI58" s="58"/>
       <c r="CJ58" s="58"/>
     </row>
-    <row r="59" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A59" s="73" t="s">
         <v>194</v>
       </c>
@@ -12658,7 +12652,7 @@
         <v>226100</v>
       </c>
     </row>
-    <row r="60" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A60" s="73" t="s">
         <v>196</v>
       </c>
@@ -12810,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A61" s="73" t="s">
         <v>198</v>
       </c>
@@ -12962,7 +12956,7 @@
         <v>8172616</v>
       </c>
     </row>
-    <row r="62" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A62" s="73" t="s">
         <v>200</v>
       </c>
@@ -13114,7 +13108,7 @@
         <v>698476</v>
       </c>
     </row>
-    <row r="63" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A63" s="73" t="s">
         <v>202</v>
       </c>
@@ -13266,7 +13260,7 @@
         <v>382222</v>
       </c>
     </row>
-    <row r="64" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A64" s="73" t="s">
         <v>204</v>
       </c>
@@ -13418,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A65" s="73" t="s">
         <v>206</v>
       </c>
@@ -13570,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A66" s="80" t="s">
         <v>208</v>
       </c>
@@ -13722,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A67" s="73" t="s">
         <v>210</v>
       </c>
@@ -13874,7 +13868,7 @@
         <v>635257</v>
       </c>
     </row>
-    <row r="68" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A68" s="80" t="s">
         <v>212</v>
       </c>
@@ -14024,7 +14018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A69" s="73" t="s">
         <v>214</v>
       </c>
@@ -14176,7 +14170,7 @@
         <v>482026</v>
       </c>
     </row>
-    <row r="70" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A70" s="73" t="s">
         <v>216</v>
       </c>
@@ -14328,7 +14322,7 @@
         <v>97156549</v>
       </c>
     </row>
-    <row r="71" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="81"/>
@@ -14418,7 +14412,7 @@
       <c r="CI71" s="83"/>
       <c r="CJ71" s="83"/>
     </row>
-    <row r="72" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="81"/>
@@ -14508,7 +14502,7 @@
       <c r="CI72" s="83"/>
       <c r="CJ72" s="83"/>
     </row>
-    <row r="73" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="81"/>
@@ -14598,7 +14592,7 @@
       <c r="CI73" s="83"/>
       <c r="CJ73" s="83"/>
     </row>
-    <row r="74" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="81"/>
@@ -14688,7 +14682,7 @@
       <c r="CI74" s="83"/>
       <c r="CJ74" s="83"/>
     </row>
-    <row r="75" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="81"/>
@@ -14791,12 +14785,12 @@
       <selection activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15062,7 +15056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
@@ -15274,7 +15268,7 @@
         <v>14027578</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -15446,7 +15440,7 @@
       <c r="CI3" s="35"/>
       <c r="CJ3" s="26"/>
     </row>
-    <row r="4" spans="1:88" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>162</v>
       </c>
@@ -15586,7 +15580,7 @@
       <c r="CI4" s="27"/>
       <c r="CJ4" s="39"/>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>179</v>
       </c>
@@ -15744,7 +15738,7 @@
       <c r="CI5" s="35"/>
       <c r="CJ5" s="26"/>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.35">
       <c r="E8">
         <f>AVERAGE(E2:I2)</f>
         <v>6086924.4000000004</v>
@@ -15770,7 +15764,7 @@
         <v>836776.6</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.35">
       <c r="E9">
         <f t="shared" ref="E9:E11" si="0">AVERAGE(E3:I3)</f>
         <v>50685.8</v>
@@ -15795,7 +15789,7 @@
         <v>96723</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.35">
       <c r="E10">
         <f>AVERAGE(E4:I4)</f>
         <v>15398</v>
@@ -15819,7 +15813,7 @@
         <v>49139.8</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.35">
       <c r="E11">
         <f t="shared" si="0"/>
         <v>3147217.2</v>
@@ -15845,7 +15839,7 @@
         <v>2025829.8</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.35">
       <c r="H15">
         <f>_xlfn.T.TEST(E8:E11,I8:I11,1,1)</f>
         <v>0.13558676602121805</v>
@@ -15855,7 +15849,7 @@
         <v>0.15723055174005426</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.35">
       <c r="H16">
         <f>_xlfn.T.TEST(F8:F11,H8:H11,1,3)</f>
         <v>0.17541338246264193</v>
@@ -15874,18 +15868,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB2FC04-175A-F241-B905-0EFBAB68E13B}">
   <dimension ref="A2:BR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:BR88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -16097,7 +16091,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -16223,7 +16217,7 @@
       <c r="BQ5" s="58"/>
       <c r="BR5" s="58"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -16349,7 +16343,7 @@
       <c r="BQ6" s="58"/>
       <c r="BR6" s="58"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -16475,7 +16469,7 @@
       <c r="BQ7" s="58"/>
       <c r="BR7" s="58"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -16601,7 +16595,7 @@
       <c r="BQ8" s="59"/>
       <c r="BR8" s="59"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -16727,7 +16721,7 @@
       <c r="BQ9" s="59"/>
       <c r="BR9" s="59"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -16853,7 +16847,7 @@
       <c r="BQ10" s="58"/>
       <c r="BR10" s="58"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -16979,7 +16973,7 @@
       <c r="BQ11" s="58"/>
       <c r="BR11" s="58"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -17105,7 +17099,7 @@
       <c r="BQ12" s="58"/>
       <c r="BR12" s="58"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>223</v>
       </c>
@@ -17231,7 +17225,7 @@
       <c r="BQ13" s="59"/>
       <c r="BR13" s="59"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -17355,7 +17349,7 @@
       <c r="BQ14" s="59"/>
       <c r="BR14" s="59"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -17481,7 +17475,7 @@
       <c r="BQ15" s="58"/>
       <c r="BR15" s="58"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>223</v>
       </c>
@@ -17607,7 +17601,7 @@
       <c r="BQ16" s="58"/>
       <c r="BR16" s="58"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -17733,7 +17727,7 @@
       <c r="BQ17" s="58"/>
       <c r="BR17" s="58"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -17859,7 +17853,7 @@
       <c r="BQ18" s="58"/>
       <c r="BR18" s="58"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>223</v>
       </c>
@@ -17985,7 +17979,7 @@
       <c r="BQ19" s="58"/>
       <c r="BR19" s="58"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -18111,7 +18105,7 @@
       <c r="BQ20" s="58"/>
       <c r="BR20" s="58"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -18237,7 +18231,7 @@
       <c r="BQ21" s="58"/>
       <c r="BR21" s="58"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>223</v>
       </c>
@@ -18361,7 +18355,7 @@
       <c r="BQ22" s="58"/>
       <c r="BR22" s="58"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>223</v>
       </c>
@@ -18487,7 +18481,7 @@
       <c r="BQ23" s="58"/>
       <c r="BR23" s="58"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -18613,7 +18607,7 @@
       <c r="BQ24" s="58"/>
       <c r="BR24" s="58"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -18739,7 +18733,7 @@
       <c r="BQ25" s="58"/>
       <c r="BR25" s="58"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -18865,7 +18859,7 @@
       <c r="BQ26" s="58"/>
       <c r="BR26" s="58"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -18991,7 +18985,7 @@
       <c r="BQ27" s="58"/>
       <c r="BR27" s="58"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -19117,7 +19111,7 @@
       <c r="BQ28" s="58"/>
       <c r="BR28" s="58"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>223</v>
       </c>
@@ -19243,7 +19237,7 @@
       <c r="BQ29" s="59"/>
       <c r="BR29" s="59"/>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -19369,7 +19363,7 @@
       <c r="BQ30" s="58"/>
       <c r="BR30" s="58"/>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -19495,7 +19489,7 @@
       <c r="BQ31" s="58"/>
       <c r="BR31" s="58"/>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>223</v>
       </c>
@@ -19621,7 +19615,7 @@
       <c r="BQ32" s="58"/>
       <c r="BR32" s="58"/>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -19747,7 +19741,7 @@
       <c r="BQ33" s="58"/>
       <c r="BR33" s="58"/>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -19873,7 +19867,7 @@
       <c r="BQ34" s="59"/>
       <c r="BR34" s="59"/>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>226</v>
       </c>
@@ -20019,7 +20013,7 @@
       <c r="BQ35" s="58"/>
       <c r="BR35" s="58"/>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>226</v>
       </c>
@@ -20165,7 +20159,7 @@
       <c r="BQ36" s="58"/>
       <c r="BR36" s="58"/>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>226</v>
       </c>
@@ -20311,7 +20305,7 @@
       <c r="BQ37" s="58"/>
       <c r="BR37" s="58"/>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -20457,7 +20451,7 @@
       <c r="BQ38" s="58"/>
       <c r="BR38" s="58"/>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -20603,7 +20597,7 @@
       <c r="BQ39" s="58"/>
       <c r="BR39" s="58"/>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>226</v>
       </c>
@@ -20749,7 +20743,7 @@
       <c r="BQ40" s="58"/>
       <c r="BR40" s="58"/>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>226</v>
       </c>
@@ -20895,7 +20889,7 @@
       <c r="BQ41" s="58"/>
       <c r="BR41" s="58"/>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>226</v>
       </c>
@@ -21041,7 +21035,7 @@
       <c r="BQ42" s="58"/>
       <c r="BR42" s="58"/>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>226</v>
       </c>
@@ -21187,7 +21181,7 @@
       <c r="BQ43" s="58"/>
       <c r="BR43" s="58"/>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -21333,7 +21327,7 @@
       <c r="BQ44" s="58"/>
       <c r="BR44" s="58"/>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -21479,7 +21473,7 @@
       <c r="BQ45" s="58"/>
       <c r="BR45" s="58"/>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>226</v>
       </c>
@@ -21625,7 +21619,7 @@
       <c r="BQ46" s="58"/>
       <c r="BR46" s="58"/>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>226</v>
       </c>
@@ -21771,7 +21765,7 @@
       <c r="BQ47" s="58"/>
       <c r="BR47" s="58"/>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>226</v>
       </c>
@@ -21917,7 +21911,7 @@
       <c r="BQ48" s="58"/>
       <c r="BR48" s="58"/>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -22063,7 +22057,7 @@
       <c r="BQ49" s="58"/>
       <c r="BR49" s="58"/>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>226</v>
       </c>
@@ -22209,7 +22203,7 @@
       <c r="BQ50" s="58"/>
       <c r="BR50" s="58"/>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>226</v>
       </c>
@@ -22355,7 +22349,7 @@
       <c r="BQ51" s="58"/>
       <c r="BR51" s="58"/>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -22501,7 +22495,7 @@
       <c r="BQ52" s="58"/>
       <c r="BR52" s="58"/>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>226</v>
       </c>
@@ -22647,7 +22641,7 @@
       <c r="BQ53" s="58"/>
       <c r="BR53" s="58"/>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -22793,7 +22787,7 @@
       <c r="BQ54" s="58"/>
       <c r="BR54" s="58"/>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>226</v>
       </c>
@@ -22939,7 +22933,7 @@
       <c r="BQ55" s="58"/>
       <c r="BR55" s="58"/>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>226</v>
       </c>
@@ -23085,7 +23079,7 @@
       <c r="BQ56" s="58"/>
       <c r="BR56" s="58"/>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>226</v>
       </c>
@@ -23231,7 +23225,7 @@
       <c r="BQ57" s="58"/>
       <c r="BR57" s="58"/>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -23377,7 +23371,7 @@
       <c r="BQ58" s="58"/>
       <c r="BR58" s="58"/>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -23523,7 +23517,7 @@
       <c r="BQ59" s="58"/>
       <c r="BR59" s="58"/>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>226</v>
       </c>
@@ -23669,7 +23663,7 @@
       <c r="BQ60" s="58"/>
       <c r="BR60" s="58"/>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -23815,7 +23809,7 @@
       <c r="BQ61" s="59"/>
       <c r="BR61" s="59"/>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -23989,7 +23983,7 @@
         <v>10282706</v>
       </c>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -24163,7 +24157,7 @@
         <v>106378505</v>
       </c>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>229</v>
       </c>
@@ -24337,7 +24331,7 @@
         <v>112700686</v>
       </c>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -24511,7 +24505,7 @@
         <v>93089962</v>
       </c>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -24685,7 +24679,7 @@
         <v>95504755</v>
       </c>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>229</v>
       </c>
@@ -24859,7 +24853,7 @@
         <v>111534573</v>
       </c>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -25033,7 +25027,7 @@
         <v>43562718</v>
       </c>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -25207,7 +25201,7 @@
         <v>64083889</v>
       </c>
     </row>
-    <row r="70" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -25381,7 +25375,7 @@
         <v>76383368</v>
       </c>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>229</v>
       </c>
@@ -25555,7 +25549,7 @@
         <v>84586604</v>
       </c>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -25729,7 +25723,7 @@
         <v>77981995</v>
       </c>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -25903,7 +25897,7 @@
         <v>85548553</v>
       </c>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>229</v>
       </c>
@@ -26077,7 +26071,7 @@
         <v>72853935</v>
       </c>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -26251,7 +26245,7 @@
         <v>87016160</v>
       </c>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -26423,7 +26417,7 @@
         <v>77512251</v>
       </c>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -26597,7 +26591,7 @@
         <v>82768482</v>
       </c>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -26769,7 +26763,7 @@
         <v>61263721</v>
       </c>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>229</v>
       </c>
@@ -26943,7 +26937,7 @@
         <v>88277609</v>
       </c>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>229</v>
       </c>
@@ -27117,7 +27111,7 @@
         <v>91230943</v>
       </c>
     </row>
-    <row r="81" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>229</v>
       </c>
@@ -27291,7 +27285,7 @@
         <v>109912287</v>
       </c>
     </row>
-    <row r="82" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -27465,7 +27459,7 @@
         <v>89285823</v>
       </c>
     </row>
-    <row r="83" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>229</v>
       </c>
@@ -27637,7 +27631,7 @@
         <v>82182776</v>
       </c>
     </row>
-    <row r="84" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>229</v>
       </c>
@@ -27811,7 +27805,7 @@
         <v>60325589</v>
       </c>
     </row>
-    <row r="85" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>229</v>
       </c>
@@ -27985,7 +27979,7 @@
         <v>107880324</v>
       </c>
     </row>
-    <row r="86" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>229</v>
       </c>
@@ -28159,7 +28153,7 @@
         <v>72102392</v>
       </c>
     </row>
-    <row r="87" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>229</v>
       </c>
@@ -28333,7 +28327,7 @@
         <v>85257546</v>
       </c>
     </row>
-    <row r="88" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:70" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>229</v>
       </c>
@@ -28520,17 +28514,17 @@
       <selection activeCell="R118" sqref="R118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="12.1640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>248</v>
       </c>
@@ -28574,7 +28568,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -28623,7 +28617,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -28673,7 +28667,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -28723,7 +28717,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -28773,7 +28767,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
@@ -28823,7 +28817,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
@@ -28873,7 +28867,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -28920,7 +28914,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -28970,7 +28964,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8</v>
       </c>
@@ -29021,7 +29015,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>24</v>
       </c>
@@ -29072,7 +29066,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -29121,7 +29115,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -29170,7 +29164,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -29221,7 +29215,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -29273,7 +29267,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -29325,7 +29319,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>5</v>
       </c>
@@ -29377,7 +29371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -29429,7 +29423,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -29481,7 +29475,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -29533,7 +29527,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -29585,7 +29579,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -29634,7 +29628,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -29684,7 +29678,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -29734,7 +29728,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -29784,7 +29778,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -29834,7 +29828,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5</v>
       </c>
@@ -29884,7 +29878,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>6</v>
       </c>
@@ -29934,7 +29928,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>7</v>
       </c>
@@ -29984,7 +29978,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>8</v>
       </c>
@@ -30035,7 +30029,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>24</v>
       </c>
@@ -30086,7 +30080,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -30135,7 +30129,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -30184,7 +30178,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -30235,7 +30229,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -30287,7 +30281,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -30339,7 +30333,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -30391,7 +30385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
@@ -30443,7 +30437,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
@@ -30498,10 +30492,10 @@
         <v>232</v>
       </c>
       <c r="U44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>8</v>
       </c>
@@ -30563,7 +30557,7 @@
         <v>0.13095835062958333</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>24</v>
       </c>
@@ -30627,7 +30621,7 @@
         <v>6.9659453101087898E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -30688,7 +30682,7 @@
         <v>3.2879833370978162E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -30743,14 +30737,14 @@
         <v>192</v>
       </c>
       <c r="S48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U48">
         <f>_xlfn.T.TEST(K67:K76,K77:K86,1,3)</f>
         <v>2.5362137812190008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2</v>
       </c>
@@ -30802,17 +30796,17 @@
         <v>222</v>
       </c>
       <c r="R49" t="s">
+        <v>256</v>
+      </c>
+      <c r="S49" t="s">
         <v>257</v>
-      </c>
-      <c r="S49" t="s">
-        <v>258</v>
       </c>
       <c r="U49">
         <f>_xlfn.T.TEST(K87:K96,K97:K106,1,3)</f>
         <v>6.9000657717232811E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -30864,7 +30858,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>4</v>
       </c>
@@ -30923,7 +30917,7 @@
         <v>0.21577109171648795</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5</v>
       </c>
@@ -30975,7 +30969,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6</v>
       </c>
@@ -31027,7 +31021,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>7</v>
       </c>
@@ -31079,7 +31073,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>8</v>
       </c>
@@ -31132,7 +31126,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>24</v>
       </c>
@@ -31185,7 +31179,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -31236,7 +31230,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
@@ -31287,7 +31281,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2</v>
       </c>
@@ -31340,7 +31334,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>3</v>
       </c>
@@ -31394,7 +31388,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>4</v>
       </c>
@@ -31448,7 +31442,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -31502,7 +31496,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6</v>
       </c>
@@ -31556,7 +31550,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>7</v>
       </c>
@@ -31610,7 +31604,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>8</v>
       </c>
@@ -31664,7 +31658,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>24</v>
       </c>
@@ -31716,7 +31710,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -31765,7 +31759,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
@@ -31815,7 +31809,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2</v>
       </c>
@@ -31865,7 +31859,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3</v>
       </c>
@@ -31915,7 +31909,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>4</v>
       </c>
@@ -31965,7 +31959,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>5</v>
       </c>
@@ -32015,7 +32009,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>6</v>
       </c>
@@ -32065,7 +32059,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7</v>
       </c>
@@ -32115,7 +32109,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>8</v>
       </c>
@@ -32166,7 +32160,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>24</v>
       </c>
@@ -32217,7 +32211,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0</v>
       </c>
@@ -32268,7 +32262,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -32319,7 +32313,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2</v>
       </c>
@@ -32372,7 +32366,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>3</v>
       </c>
@@ -32426,7 +32420,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4</v>
       </c>
@@ -32480,7 +32474,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>5</v>
       </c>
@@ -32534,7 +32528,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>6</v>
       </c>
@@ -32588,7 +32582,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>7</v>
       </c>
@@ -32642,7 +32636,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8</v>
       </c>
@@ -32696,7 +32690,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>24</v>
       </c>
@@ -32757,7 +32751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0</v>
       </c>
@@ -32797,7 +32791,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N87" t="s">
         <v>129</v>
@@ -32813,7 +32807,7 @@
         <v>0.21132486540518719</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
@@ -32853,7 +32847,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N88" t="s">
         <v>129</v>
@@ -32869,7 +32863,7 @@
         <v>0.21132486540518708</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2</v>
       </c>
@@ -32911,7 +32905,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N89" t="s">
         <v>129</v>
@@ -32927,7 +32921,7 @@
         <v>7.4465015086230713E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>3</v>
       </c>
@@ -32970,7 +32964,7 @@
         <v>13967.661651113976</v>
       </c>
       <c r="M90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N90" t="s">
         <v>129</v>
@@ -32986,7 +32980,7 @@
         <v>9.1288566590662992E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>4</v>
       </c>
@@ -33029,7 +33023,7 @@
         <v>34670.917817867645</v>
       </c>
       <c r="M91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N91" t="s">
         <v>129</v>
@@ -33045,7 +33039,7 @@
         <v>9.148482478315588E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5</v>
       </c>
@@ -33088,7 +33082,7 @@
         <v>85339.459374508209</v>
       </c>
       <c r="M92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N92" t="s">
         <v>129</v>
@@ -33104,7 +33098,7 @@
         <v>4.5579239688149156E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>6</v>
       </c>
@@ -33147,7 +33141,7 @@
         <v>49228.037509126851</v>
       </c>
       <c r="M93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N93" t="s">
         <v>129</v>
@@ -33163,7 +33157,7 @@
         <v>2.2544145010259298E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>7</v>
       </c>
@@ -33206,7 +33200,7 @@
         <v>103316.45694821974</v>
       </c>
       <c r="M94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N94" t="s">
         <v>129</v>
@@ -33222,7 +33216,7 @@
         <v>9.8087747540421683E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>8</v>
       </c>
@@ -33265,7 +33259,7 @@
         <v>62127.533206569082</v>
       </c>
       <c r="M95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N95" t="s">
         <v>129</v>
@@ -33281,7 +33275,7 @@
         <v>0.37480524641415153</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>24</v>
       </c>
@@ -33321,7 +33315,7 @@
         <v>205012.17617619692</v>
       </c>
       <c r="M96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N96" t="s">
         <v>129</v>
@@ -33330,7 +33324,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0</v>
       </c>
@@ -33370,7 +33364,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N97" t="s">
         <v>129</v>
@@ -33379,7 +33373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -33420,7 +33414,7 @@
         <v>57959.038823408147</v>
       </c>
       <c r="M98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N98" t="s">
         <v>129</v>
@@ -33429,7 +33423,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2</v>
       </c>
@@ -33470,7 +33464,7 @@
         <v>109280.85895221237</v>
       </c>
       <c r="M99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N99" t="s">
         <v>129</v>
@@ -33479,7 +33473,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>3</v>
       </c>
@@ -33520,7 +33514,7 @@
         <v>839714.86482198234</v>
       </c>
       <c r="M100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N100" t="s">
         <v>129</v>
@@ -33529,7 +33523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>4</v>
       </c>
@@ -33570,7 +33564,7 @@
         <v>374843.51945311791</v>
       </c>
       <c r="M101" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N101" t="s">
         <v>129</v>
@@ -33579,7 +33573,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>5</v>
       </c>
@@ -33620,7 +33614,7 @@
         <v>488888.98725204787</v>
       </c>
       <c r="M102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N102" t="s">
         <v>129</v>
@@ -33629,7 +33623,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>6</v>
       </c>
@@ -33670,7 +33664,7 @@
         <v>492250.27629889047</v>
       </c>
       <c r="M103" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N103" t="s">
         <v>129</v>
@@ -33679,7 +33673,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>7</v>
       </c>
@@ -33720,7 +33714,7 @@
         <v>1203583.291751897</v>
       </c>
       <c r="M104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N104" t="s">
         <v>129</v>
@@ -33729,7 +33723,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>8</v>
       </c>
@@ -33771,7 +33765,7 @@
         <v>3406506.7292565755</v>
       </c>
       <c r="M105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N105" t="s">
         <v>129</v>
@@ -33780,7 +33774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>24</v>
       </c>
@@ -33822,7 +33816,7 @@
         <v>899611.98888205865</v>
       </c>
       <c r="M106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N106" t="s">
         <v>129</v>
@@ -33831,7 +33825,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -33880,7 +33874,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -33929,7 +33923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2</v>
       </c>
@@ -33987,7 +33981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>3</v>
       </c>
@@ -34046,7 +34040,7 @@
         <v>0.36671463334968035</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>4</v>
       </c>
@@ -34105,7 +34099,7 @@
         <v>0.41127103801977272</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5</v>
       </c>
@@ -34164,7 +34158,7 @@
         <v>0.16863810352267986</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>6</v>
       </c>
@@ -34223,7 +34217,7 @@
         <v>0.34796504805467016</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>7</v>
       </c>
@@ -34282,7 +34276,7 @@
         <v>0.36181378330969904</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>8</v>
       </c>
@@ -34341,7 +34335,7 @@
         <v>0.17190899955156544</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>24</v>
       </c>
@@ -34400,7 +34394,7 @@
         <v>0.25601000984849703</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -34456,7 +34450,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1</v>
       </c>
@@ -34513,7 +34507,7 @@
         <v>5.1008086468455449E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2</v>
       </c>
@@ -34563,7 +34557,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>3</v>
       </c>
@@ -34613,7 +34607,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>4</v>
       </c>
@@ -34663,7 +34657,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>5</v>
       </c>
@@ -34710,7 +34704,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>6</v>
       </c>
@@ -34760,7 +34754,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>7</v>
       </c>
@@ -34807,7 +34801,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>8</v>
       </c>
@@ -34852,7 +34846,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>24</v>
       </c>
@@ -34916,14 +34910,14 @@
       <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -34964,7 +34958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -35009,7 +35003,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -35057,7 +35051,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -35105,7 +35099,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -35153,7 +35147,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -35201,7 +35195,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -35249,7 +35243,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -35297,7 +35291,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -35345,7 +35339,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -35393,7 +35387,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>24</v>
       </c>
@@ -35441,7 +35435,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>0</v>
       </c>
@@ -35486,7 +35480,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>1</v>
       </c>
@@ -35534,7 +35528,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>2</v>
       </c>
@@ -35582,7 +35576,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>3</v>
       </c>
@@ -35630,7 +35624,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>4</v>
       </c>
@@ -35678,7 +35672,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>5</v>
       </c>
@@ -35726,7 +35720,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>6</v>
       </c>
@@ -35774,7 +35768,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>7</v>
       </c>
@@ -35822,7 +35816,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>8</v>
       </c>
@@ -35870,7 +35864,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>24</v>
       </c>
@@ -35918,7 +35912,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -35961,7 +35955,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -36007,7 +36001,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -36053,7 +36047,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -36099,7 +36093,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -36145,7 +36139,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>5</v>
       </c>
@@ -36191,7 +36185,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6</v>
       </c>
@@ -36237,7 +36231,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
@@ -36283,7 +36277,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -36329,7 +36323,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>24</v>
       </c>
@@ -36375,7 +36369,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>0</v>
       </c>
@@ -36418,7 +36412,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>1</v>
       </c>
@@ -36466,7 +36460,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>2</v>
       </c>
@@ -36514,7 +36508,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>3</v>
       </c>
@@ -36562,7 +36556,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>4</v>
       </c>
@@ -36610,7 +36604,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>5</v>
       </c>
@@ -36655,10 +36649,10 @@
         <v>231</v>
       </c>
       <c r="R40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>6</v>
       </c>
@@ -36709,7 +36703,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>7</v>
       </c>
@@ -36764,7 +36758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>8</v>
       </c>
@@ -36819,7 +36813,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>24</v>
       </c>
@@ -36874,7 +36868,7 @@
         <v>0.21132486540518708</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>0</v>
       </c>
@@ -36926,7 +36920,7 @@
         <v>0.10007486305992286</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>1</v>
       </c>
@@ -36981,7 +36975,7 @@
         <v>3.4636901089936889E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <v>2</v>
       </c>
@@ -37036,7 +37030,7 @@
         <v>8.0515595098879955E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>3</v>
       </c>
@@ -37091,7 +37085,7 @@
         <v>5.9958205429999967E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>4</v>
       </c>
@@ -37146,7 +37140,7 @@
         <v>2.5762236308722042E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>5</v>
       </c>
@@ -37201,7 +37195,7 @@
         <v>6.3147797193452149E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>6</v>
       </c>
@@ -37256,7 +37250,7 @@
         <v>5.5286876213751834E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>7</v>
       </c>
@@ -37304,7 +37298,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>8</v>
       </c>
@@ -37358,10 +37352,10 @@
         <v>232</v>
       </c>
       <c r="R53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>24</v>
       </c>
@@ -37412,7 +37406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -37460,7 +37454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
@@ -37511,7 +37505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2</v>
       </c>
@@ -37562,7 +37556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3</v>
       </c>
@@ -37613,7 +37607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>4</v>
       </c>
@@ -37664,7 +37658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5</v>
       </c>
@@ -37715,7 +37709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6</v>
       </c>
@@ -37766,7 +37760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7</v>
       </c>
@@ -37817,7 +37811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>8</v>
       </c>
@@ -37868,7 +37862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>24</v>
       </c>
@@ -37916,7 +37910,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -37961,7 +37955,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
@@ -38012,7 +38006,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2</v>
       </c>
@@ -38063,7 +38057,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3</v>
       </c>
@@ -38114,7 +38108,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4</v>
       </c>
@@ -38165,7 +38159,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>5</v>
       </c>
@@ -38216,7 +38210,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>6</v>
       </c>
@@ -38264,7 +38258,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7</v>
       </c>
@@ -38312,7 +38306,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>8</v>
       </c>
@@ -38360,7 +38354,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>24</v>
       </c>
@@ -38408,7 +38402,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
         <v>0</v>
       </c>
@@ -38453,7 +38447,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>1</v>
       </c>
@@ -38501,7 +38495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
         <v>2</v>
       </c>
@@ -38549,7 +38543,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>3</v>
       </c>
@@ -38597,7 +38591,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
         <v>4</v>
       </c>
@@ -38645,7 +38639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
         <v>5</v>
       </c>
@@ -38693,7 +38687,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>6</v>
       </c>
@@ -38741,7 +38735,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>7</v>
       </c>
@@ -38789,7 +38783,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
         <v>8</v>
       </c>
@@ -38837,7 +38831,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>24</v>
       </c>
@@ -38885,7 +38879,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0</v>
       </c>
@@ -38930,7 +38924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
@@ -38978,7 +38972,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2</v>
       </c>
@@ -39026,7 +39020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>3</v>
       </c>
@@ -39074,7 +39068,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>4</v>
       </c>
@@ -39122,7 +39116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5</v>
       </c>
@@ -39170,7 +39164,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>6</v>
       </c>
@@ -39218,7 +39212,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>7</v>
       </c>
@@ -39266,7 +39260,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>8</v>
       </c>
@@ -39311,7 +39305,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>24</v>
       </c>
@@ -39359,7 +39353,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
         <v>0</v>
       </c>
@@ -39402,7 +39396,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
         <v>1</v>
       </c>
@@ -39450,7 +39444,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
         <v>2</v>
       </c>
@@ -39498,7 +39492,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
         <v>3</v>
       </c>
@@ -39546,7 +39540,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="17">
         <v>4</v>
       </c>
@@ -39594,7 +39588,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="17">
         <v>5</v>
       </c>
@@ -39639,7 +39633,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>6</v>
       </c>
@@ -39687,7 +39681,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>7</v>
       </c>
@@ -39735,7 +39729,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>8</v>
       </c>
@@ -39783,7 +39777,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>24</v>
       </c>
@@ -39831,7 +39825,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -39876,7 +39870,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1</v>
       </c>
@@ -39924,7 +39918,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2</v>
       </c>
@@ -39972,7 +39966,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>3</v>
       </c>
@@ -40020,7 +40014,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>4</v>
       </c>
@@ -40068,7 +40062,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>5</v>
       </c>
@@ -40116,7 +40110,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>6</v>
       </c>
@@ -40164,7 +40158,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>7</v>
       </c>
@@ -40212,7 +40206,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>8</v>
       </c>
@@ -40260,7 +40254,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>24</v>
       </c>
@@ -40308,7 +40302,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="17">
         <v>0</v>
       </c>
@@ -40353,7 +40347,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="17">
         <v>1</v>
       </c>
@@ -40401,7 +40395,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="17">
         <v>2</v>
       </c>
@@ -40449,7 +40443,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="17">
         <v>3</v>
       </c>
@@ -40497,7 +40491,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="17">
         <v>4</v>
       </c>
@@ -40545,7 +40539,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="17">
         <v>5</v>
       </c>
@@ -40593,7 +40587,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="17">
         <v>6</v>
       </c>
@@ -40641,7 +40635,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="17">
         <v>7</v>
       </c>
@@ -40689,7 +40683,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="17">
         <v>8</v>
       </c>
@@ -40737,7 +40731,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="17">
         <v>24</v>
       </c>
@@ -40796,7 +40790,7 @@
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
